--- a/Backend/后端接口.xlsx
+++ b/Backend/后端接口.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DB_design\Backend\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\homework\DB\DB_design\Backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CD21233-E085-4636-97A1-D164F64937A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA16E31E-A4F6-43DE-9B51-81637DCA9734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,10 +35,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>e.g</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>前端参数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -47,23 +43,87 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>登录-signin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>POST</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/api/user/signin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>***</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>response{a:int,b:String}</t>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string account</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string : 如果成功则返回token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误代码表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>error code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连接数据库失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户账户或密码错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个后续会扩充，先这么搞吧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未知错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果失败，返回error code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册-Register</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录-Login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Register</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string userName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册时账户重复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>error code 格式："error code=代码值"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string : 成功返回"Success"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -95,7 +155,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -103,15 +163,133 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -392,63 +570,188 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:E4"/>
+  <dimension ref="B2:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.6640625" customWidth="1"/>
-    <col min="2" max="2" width="19.9140625" customWidth="1"/>
-    <col min="3" max="3" width="22.83203125" customWidth="1"/>
-    <col min="4" max="4" width="19.9140625" customWidth="1"/>
-    <col min="5" max="5" width="26" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" customWidth="1"/>
+    <col min="3" max="3" width="22.77734375" customWidth="1"/>
+    <col min="4" max="4" width="19.88671875" customWidth="1"/>
+    <col min="5" max="5" width="34.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="11"/>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="11"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
+        <v>114514</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+      <c r="C11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="1"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="3"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="10"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C18" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D18" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E3" t="s">
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="C19" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E19" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="1"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
+      <c r="E20" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="3"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:E2"/>
+  <mergeCells count="5">
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
